--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 5.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF81C20F-302A-4EA1-85C2-9397BDFEF696}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E15E0-9FB4-4FDA-8767-AB2C5AC7146E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Anaylsis Final Event</t>
+  </si>
+  <si>
+    <t>AI Stuff</t>
   </si>
 </sst>
 </file>
@@ -377,19 +380,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>48.15</c:v>
+                  <c:v>53.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.519999999999996</c:v>
+                  <c:v>42.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.889999999999997</c:v>
+                  <c:v>31.889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.259999999999998</c:v>
+                  <c:v>21.259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.629999999999999</c:v>
+                  <c:v>10.629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -441,22 +444,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>48.15</c:v>
+                  <c:v>53.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.15</c:v>
+                  <c:v>49.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.15</c:v>
+                  <c:v>49.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.15</c:v>
+                  <c:v>49.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.15</c:v>
+                  <c:v>49.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.15</c:v>
+                  <c:v>49.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1526,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,27 +1566,27 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(B7:B38)</f>
-        <v>48.15</v>
+        <v>53.15</v>
       </c>
       <c r="D3" s="2">
         <f>$C3-SUM(C7:C38)</f>
-        <v>48.15</v>
+        <v>49.15</v>
       </c>
       <c r="E3" s="2">
         <f>$C3-SUM(C7:D38)</f>
-        <v>48.15</v>
+        <v>49.15</v>
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>48.15</v>
+        <v>49.15</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>48.15</v>
+        <v>49.15</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>48.15</v>
+        <v>49.15</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1594,23 +1597,23 @@
       </c>
       <c r="C4" s="9">
         <f>C3</f>
-        <v>48.15</v>
+        <v>53.15</v>
       </c>
       <c r="D4" s="9">
         <f>C4-$C4/5</f>
-        <v>38.519999999999996</v>
+        <v>42.519999999999996</v>
       </c>
       <c r="E4" s="9">
         <f>D4-$C4/5</f>
-        <v>28.889999999999997</v>
+        <v>31.889999999999997</v>
       </c>
       <c r="F4" s="9">
         <f>E4-$C4/5</f>
-        <v>19.259999999999998</v>
+        <v>21.259999999999998</v>
       </c>
       <c r="G4" s="9">
         <f>F4-$C4/5</f>
-        <v>9.629999999999999</v>
+        <v>10.629999999999999</v>
       </c>
       <c r="H4" s="9">
         <f>G4-$C4/5</f>
@@ -1727,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -2045,12 +2048,14 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 5.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E15E0-9FB4-4FDA-8767-AB2C5AC7146E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638991D-3F62-4CB4-87A3-0E8D4BF5D50A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,16 +450,16 @@
                   <c:v>49.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.15</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.15</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.15</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.15</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1526,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,19 +1574,19 @@
       </c>
       <c r="E3" s="2">
         <f>$C3-SUM(C7:D38)</f>
-        <v>49.15</v>
+        <v>47.9</v>
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>49.15</v>
+        <v>47.9</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>49.15</v>
+        <v>47.9</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>49.15</v>
+        <v>47.9</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 5.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638991D-3F62-4CB4-87A3-0E8D4BF5D50A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B178B8-B5E1-477B-BE43-FBD669F9C923}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,13 +453,13 @@
                   <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.9</c:v>
+                  <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.9</c:v>
+                  <c:v>40.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.9</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1526,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,15 +1578,15 @@
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>47.9</v>
+        <v>44.9</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>47.9</v>
+        <v>40.9</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>47.9</v>
+        <v>39.9</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
